--- a/data/raw/SR Final Settlement prices.xlsx
+++ b/data/raw/SR Final Settlement prices.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\04 Sales\1. Ferrous\17. Historical data for website\Version on website\Final settlement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateo/GitHub/steel-scrap-predictor/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA32DD7-EE4B-7942-A95B-94A19303232A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27792" windowHeight="14376"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SR Final Settlement prices " sheetId="1" r:id="rId1"/>
@@ -19,21 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Contract name</t>
-  </si>
-  <si>
-    <t>Contrat code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Currency/unit</t>
-  </si>
-  <si>
-    <t>LME Steel Rebar</t>
-  </si>
-  <si>
-    <t>SR</t>
   </si>
   <si>
     <t>USD/mt</t>
@@ -42,12 +31,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,14 +45,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -129,14 +110,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -144,18 +119,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -172,7 +147,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -247,6 +222,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -282,6 +274,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,473 +466,457 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>42309</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B2" s="1">
         <v>341.33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>42339</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B3" s="1">
         <v>326.31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>42370</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B4" s="1">
         <v>323.18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>42401</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B5" s="1">
         <v>318.81</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>42430</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B6" s="1">
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>42461</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B7" s="1">
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>42491</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B8" s="1">
         <v>475.58</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>42522</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B9" s="1">
         <v>398.59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>42552</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B10" s="1">
         <v>379.69</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>42583</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B11" s="1">
         <v>381.68</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>42614</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B12" s="1">
         <v>374.23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>42644</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B13" s="1">
         <v>375.6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>42675</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B14" s="1">
         <v>424.32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>42705</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B15" s="1">
         <v>428.25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>42736</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B16" s="1">
         <v>419.45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>42767</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B17" s="1">
         <v>413.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>42795</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B18" s="1">
         <v>436.3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>42826</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B19" s="1">
         <v>423.81</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>42856</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B20" s="1">
         <v>430.3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>42887</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B21" s="1">
         <v>427.1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>42917</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B22" s="1">
         <v>458</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>42948</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B23" s="1">
         <v>520.39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>42979</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B24" s="1">
         <v>542.36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>43009</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B25" s="1">
         <v>515.9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>43040</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B26" s="1">
         <v>517.84</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>43070</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B27" s="1">
         <v>550.13</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>43101</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B28" s="1">
         <v>564.79999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>43132</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B29" s="1">
         <v>567.4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>43160</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B30" s="1">
         <v>583.5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>43191</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B31" s="1">
         <v>555.28</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>43221</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B32" s="1">
         <v>551.30999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>43252</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B33" s="1">
         <v>548.16999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <v>43282</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B34" s="1">
         <v>542.48</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
         <v>43313</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B35" s="1">
         <v>520.95000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
         <v>43344</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B36" s="1">
         <v>509.23</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
         <v>43374</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B37" s="1">
         <v>498.98</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>43405</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B38" s="1">
         <v>499.49</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
         <v>43435</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B39" s="1">
         <v>467.28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
         <v>43466</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B40" s="1">
         <v>445.73</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
         <v>43497</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B41" s="1">
         <v>471.13</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
         <v>43525</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B42" s="1">
         <v>481.64</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>43556</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B43" s="2">
         <v>480.18</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
         <v>43586</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B44" s="2">
         <v>470.14</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>43617</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B45" s="2">
         <v>467.53</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
         <v>43647</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B46" s="1">
         <v>460.65</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
         <v>43678</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B47" s="1">
         <v>448.55</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
         <v>43738</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B48" s="1">
         <v>412.73</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
         <v>43769</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B49" s="1">
         <v>405.1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
         <v>43798</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B50" s="1">
         <v>417.43</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
         <v>43828</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B51" s="1">
         <v>441.93</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="8">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
         <v>43831</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B52" s="1">
         <v>436.06</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="8">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
         <v>43862</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B53" s="1">
         <v>428.21</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="8">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
         <v>43891</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B54" s="1">
         <v>415</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="8">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
         <v>43951</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B55" s="2">
         <v>402.93</v>
       </c>
     </row>
